--- a/biology/Zoologie/Gymnolaemata/Gymnolaemata.xlsx
+++ b/biology/Zoologie/Gymnolaemata/Gymnolaemata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gymnolaemata (gymnolémés en français) sont l'une des trois classes de Bryozoaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces animaux à zoïdes cylindriques ou aplatis sont principalement marins. La couronne tentaculaire en forme de cercle n'est pas reliée par une membrane commune mais est mue par des muscles poussant sur une paroi frontale. 
 </t>
@@ -542,7 +556,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils incluent la plupart des espèces actuelles et sont classiquement divisés en deux ordres et douze sous-ordres :
 les cténostomés (Ctenostomata) : ovovivipares, non calcifiés, certains se protègent en creusant le substrat calcaire. (Ordovicien - Récent)
@@ -599,7 +615,7 @@
 super-famille des Mamilloporoidea
 super-famille des Celleporoidea
 super-famille des Conescharellinoidea
-Selon World Register of Marine Species                               (1 mars 2016)[1] :
+Selon World Register of Marine Species                               (1 mars 2016) :
 ordre Cheilostomatida Busk, 1852
 sous-ordre Belluloporina
 sous-ordre Flustrina
